--- a/scraper/top_remaining_spreadsheets_states/top_remaining_KS.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_KS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>THE LUCKY SPOT</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>BINGO!</t>
@@ -116,12 +116,6 @@
     <t>$500 FULLY LOADED</t>
   </si>
   <si>
-    <t>PUMPKIN SPICE</t>
-  </si>
-  <si>
-    <t>2019-02-07</t>
-  </si>
-  <si>
     <t>BLACK ICE</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
   </si>
   <si>
     <t>2019-02-19</t>
-  </si>
-  <si>
-    <t>STAR PLATINUM PLAY</t>
   </si>
   <si>
     <t>$30.00 Games</t>
@@ -521,7 +512,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,7 +774,7 @@
         <v>788</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -983,7 +974,7 @@
         <v>732</v>
       </c>
       <c r="E23">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1000,13 +991,13 @@
         <v>33</v>
       </c>
       <c r="D24">
-        <v>793</v>
+        <v>742</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1014,16 +1005,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1034,16 +1025,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
       <c r="D26">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1054,16 +1045,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>747</v>
+        <v>113</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1074,13 +1065,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28">
-        <v>113</v>
+        <v>785</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -1094,16 +1085,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>785</v>
+        <v>106</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1114,16 +1105,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>106</v>
+        <v>794</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1134,16 +1125,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31">
-        <v>794</v>
+        <v>745</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1154,19 +1145,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32">
+        <v>741</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
         <v>43</v>
-      </c>
-      <c r="D32">
-        <v>745</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1174,19 +1165,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1194,16 +1185,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
         <v>46</v>
       </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
       <c r="D34">
-        <v>789</v>
+        <v>114</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1214,16 +1205,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35">
-        <v>114</v>
+        <v>751</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1234,13 +1225,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36">
-        <v>751</v>
+        <v>712</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1254,19 +1245,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>787</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
         <v>50</v>
-      </c>
-      <c r="D37">
-        <v>712</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1274,58 +1265,18 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38">
-        <v>787</v>
+        <v>115</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39">
-        <v>641</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40">
-        <v>115</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_KS.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_KS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>STATE</t>
   </si>
@@ -41,21 +41,24 @@
     <t>$1.00 Games</t>
   </si>
   <si>
+    <t>BINGO!</t>
+  </si>
+  <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>10X THE CASH</t>
+  </si>
+  <si>
     <t>THE LUCKY SPOT</t>
   </si>
   <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
-    <t>BINGO!</t>
-  </si>
-  <si>
-    <t>10X THE CASH</t>
-  </si>
-  <si>
     <t>VETERANS CASH</t>
   </si>
   <si>
+    <t>TREASURE HUNT</t>
+  </si>
+  <si>
     <t>LUCKY CHICKS</t>
   </si>
   <si>
@@ -68,64 +71,91 @@
     <t>JUMBO BUCKS</t>
   </si>
   <si>
+    <t>TRIPLE 7S</t>
+  </si>
+  <si>
+    <t>LOVE TO WIN!</t>
+  </si>
+  <si>
+    <t>ULTIMATE SLOTS</t>
+  </si>
+  <si>
+    <t>DOUBLE BONUS CROSSWORD</t>
+  </si>
+  <si>
+    <t>GOT LUCK?</t>
+  </si>
+  <si>
+    <t>2019-04-04</t>
+  </si>
+  <si>
+    <t>20X THE CASH</t>
+  </si>
+  <si>
     <t>CRATERS OF COINS</t>
   </si>
   <si>
-    <t>20X THE CASH</t>
-  </si>
-  <si>
-    <t>TRIPLE 7S</t>
-  </si>
-  <si>
     <t>WINNER WINNER CHICKEN DIN</t>
   </si>
   <si>
-    <t>DOUBLE BONUS CROSSWORD</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
+    <t>SUPER RED HOT CROSSWORD</t>
+  </si>
+  <si>
+    <t>SUPER JUMBO BUCKS</t>
+  </si>
+  <si>
+    <t>50X THE CASH</t>
+  </si>
+  <si>
     <t>THE VOICE</t>
   </si>
   <si>
+    <t>FAST CASH</t>
+  </si>
+  <si>
+    <t>CASH SERIES</t>
+  </si>
+  <si>
+    <t>NEON LETTERS</t>
+  </si>
+  <si>
+    <t>PACMAN</t>
+  </si>
+  <si>
+    <t>$500 FULLY LOADED</t>
+  </si>
+  <si>
+    <t>SWEET FORTUNE</t>
+  </si>
+  <si>
     <t>MAGICAL SIGHTINGS</t>
   </si>
   <si>
-    <t>SUPER RED HOT CROSSWORD</t>
-  </si>
-  <si>
-    <t>SUPER JUMBO BUCKS</t>
-  </si>
-  <si>
-    <t>FAST CASH</t>
-  </si>
-  <si>
-    <t>CASH SERIES</t>
-  </si>
-  <si>
-    <t>SWEET FORTUNE</t>
-  </si>
-  <si>
-    <t>50X THE CASH</t>
-  </si>
-  <si>
-    <t>PACMAN</t>
-  </si>
-  <si>
-    <t>$500 FULLY LOADED</t>
+    <t>2019-03-17</t>
   </si>
   <si>
     <t>BLACK ICE</t>
   </si>
   <si>
+    <t>2019-03-14</t>
+  </si>
+  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
+    <t>KANSAS TRUCKS &amp; BUCKS</t>
+  </si>
+  <si>
+    <t>MEGA JUMBO BUCKS</t>
+  </si>
+  <si>
     <t>LUCKY NUMBERS SUPER TCK</t>
   </si>
   <si>
-    <t>KANSAS TRUCKS &amp; BUCKS</t>
+    <t>JEWEL JACKPOT</t>
   </si>
   <si>
     <t>100X THE CASH</t>
@@ -137,37 +167,19 @@
     <t>$100,000 CROSSWORD</t>
   </si>
   <si>
-    <t>JEWEL JACKPOT</t>
-  </si>
-  <si>
-    <t>MEGA JUMBO BUCKS</t>
-  </si>
-  <si>
-    <t>$75K CASH</t>
-  </si>
-  <si>
-    <t>2019-02-10</t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
+    <t>200X THE CASH</t>
+  </si>
+  <si>
+    <t>WOLF RUN</t>
+  </si>
+  <si>
+    <t>STACKS OF CASH / HIGH ROL</t>
+  </si>
+  <si>
     <t>EXTREME CROSSWORD</t>
-  </si>
-  <si>
-    <t>200X THE CASH</t>
-  </si>
-  <si>
-    <t>WOLF RUN</t>
-  </si>
-  <si>
-    <t>STACKS OF CASH / HIGH ROL</t>
-  </si>
-  <si>
-    <t>KANSAS LUCKY DIAMONDS</t>
-  </si>
-  <si>
-    <t>2019-02-19</t>
   </si>
   <si>
     <t>$30.00 Games</t>
@@ -512,7 +524,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,10 +563,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>675</v>
+        <v>701</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -571,10 +583,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>701</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -591,10 +603,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>110</v>
+        <v>675</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -631,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>674</v>
+        <v>795</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -645,16 +657,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
       <c r="D7">
-        <v>622</v>
+        <v>674</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -665,13 +677,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8">
-        <v>743</v>
+        <v>622</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -685,16 +697,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -705,16 +717,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10">
-        <v>111</v>
+        <v>612</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -725,16 +737,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11">
-        <v>612</v>
+        <v>746</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -745,16 +757,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12">
-        <v>783</v>
+        <v>613</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -765,16 +777,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13">
-        <v>788</v>
+        <v>116</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -785,19 +797,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14">
+        <v>614</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>23</v>
-      </c>
-      <c r="D14">
-        <v>755</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -805,16 +817,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15">
-        <v>786</v>
+        <v>111</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -825,16 +837,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16">
-        <v>759</v>
+        <v>661</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -845,16 +857,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17">
-        <v>744</v>
+        <v>783</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -865,16 +877,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>595</v>
+        <v>788</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -885,16 +897,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
       </c>
       <c r="D19">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -905,16 +917,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20">
-        <v>796</v>
+        <v>744</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -925,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -945,13 +957,13 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22">
-        <v>616</v>
+        <v>755</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -965,16 +977,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
       <c r="D23">
-        <v>732</v>
+        <v>595</v>
       </c>
       <c r="E23">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -985,16 +997,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="D24">
-        <v>742</v>
+        <v>770</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1005,16 +1017,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
       <c r="D25">
-        <v>756</v>
+        <v>799</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1025,13 +1037,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>747</v>
+        <v>616</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1045,16 +1057,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>113</v>
+        <v>732</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1065,16 +1077,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>785</v>
+        <v>796</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1085,19 +1097,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29">
+        <v>786</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
         <v>39</v>
-      </c>
-      <c r="D29">
-        <v>106</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1105,19 +1117,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30">
-        <v>794</v>
+        <v>742</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1125,13 +1137,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D31">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1145,19 +1157,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1165,16 +1177,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33">
-        <v>789</v>
+        <v>756</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1185,16 +1197,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34">
-        <v>114</v>
+        <v>794</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1205,13 +1217,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35">
-        <v>751</v>
+        <v>113</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1225,13 +1237,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36">
-        <v>712</v>
+        <v>785</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1245,19 +1257,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37">
-        <v>787</v>
+        <v>106</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1265,18 +1277,98 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
         <v>51</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38">
+        <v>114</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
         <v>52</v>
       </c>
-      <c r="D38">
+      <c r="D39">
+        <v>751</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>712</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>789</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42">
         <v>115</v>
       </c>
-      <c r="E38">
+      <c r="E42">
         <v>2</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F42" t="s">
         <v>9</v>
       </c>
     </row>
